--- a/backend/reports/generated/reporte-cmfyhd30r02ydep4m8ai95h8p.xlsx
+++ b/backend/reports/generated/reporte-cmfyhd30r02ydep4m8ai95h8p.xlsx
@@ -447,7 +447,7 @@
         <v>Generado el:</v>
       </c>
       <c r="B6" t="str">
-        <v>24/09/2025 16:12</v>
+        <v>29/09/2025 16:10</v>
       </c>
     </row>
     <row r="8">
